--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -667,7 +667,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,9 @@
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -934,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>GitHub (up to 100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Basic Options (up to 130)</t>
@@ -666,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +676,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>46</v>
@@ -688,12 +685,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -701,7 +698,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -709,7 +706,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -725,7 +722,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -735,9 +732,11 @@
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>9</v>
+      </c>
       <c r="D8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -745,15 +744,17 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>25</v>
+      </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -763,135 +764,133 @@
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
+      <c r="C11" s="5">
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="5">
-        <v>4</v>
-      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="5">
-        <v>5</v>
-      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5">
-        <v>5</v>
-      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="5">
-        <v>5</v>
-      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5">
-        <v>5</v>
-      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="5">
-        <v>5</v>
-      </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>9</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="5">
-        <v>8</v>
-      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>4</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="5">
-        <v>4</v>
-      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="5">
-        <v>5</v>
-      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -907,37 +906,37 @@
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="5">
-        <v>5</v>
-      </c>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="5">
-        <v>3</v>
-      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
@@ -993,29 +992,29 @@
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="5">
-        <v>5</v>
-      </c>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>4</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="5">
-        <v>4</v>
-      </c>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1197,7 +1196,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
